--- a/Resources/suburb.xlsx
+++ b/Resources/suburb.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatema.girnary/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaushuwong/Documents/Data_Analysis_Bootcamp/Project/project3_group3/real-estate-analysis/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBD5863-F00E-DB46-BBDF-1CE169C269FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B806D1-C060-084D-8A69-48D17895F861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15160" xr2:uid="{A7344D96-616F-A549-993C-DADA5D3BC4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,967 +41,967 @@
     <t>SUBURB</t>
   </si>
   <si>
-    <t>South Lake</t>
-  </si>
-  <si>
-    <t>Wandi</t>
-  </si>
-  <si>
-    <t>Camillo</t>
-  </si>
-  <si>
-    <t>Bellevue</t>
-  </si>
-  <si>
-    <t>Lockridge</t>
-  </si>
-  <si>
-    <t>Mount Richon</t>
-  </si>
-  <si>
-    <t>Hilbert</t>
-  </si>
-  <si>
-    <t>Waikiki</t>
-  </si>
-  <si>
-    <t>Hamersley</t>
-  </si>
-  <si>
-    <t>Bayswater</t>
-  </si>
-  <si>
-    <t>Carmel</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Balga</t>
-  </si>
-  <si>
-    <t>Hammond Park</t>
-  </si>
-  <si>
-    <t>Wattle Grove</t>
-  </si>
-  <si>
-    <t>Bull Creek</t>
-  </si>
-  <si>
-    <t>Bullsbrook</t>
-  </si>
-  <si>
-    <t>Maida Vale</t>
-  </si>
-  <si>
-    <t>Koongamia</t>
-  </si>
-  <si>
-    <t>Mount Nasura</t>
-  </si>
-  <si>
-    <t>Forrestdale</t>
-  </si>
-  <si>
-    <t>Atwell</t>
-  </si>
-  <si>
-    <t>Ashby</t>
-  </si>
-  <si>
-    <t>Woodbridge</t>
-  </si>
-  <si>
-    <t>Bicton</t>
-  </si>
-  <si>
-    <t>Singleton</t>
-  </si>
-  <si>
-    <t>South Guildford</t>
-  </si>
-  <si>
-    <t>Armadale</t>
-  </si>
-  <si>
-    <t>Kenwick</t>
-  </si>
-  <si>
-    <t>Hamilton Hill</t>
-  </si>
-  <si>
-    <t>Port Kennedy</t>
-  </si>
-  <si>
-    <t>Roleystone</t>
-  </si>
-  <si>
-    <t>Glen Forrest</t>
-  </si>
-  <si>
-    <t>Secret Harbour</t>
-  </si>
-  <si>
-    <t>Herne Hill</t>
-  </si>
-  <si>
-    <t>Gwelup</t>
-  </si>
-  <si>
-    <t>Harrisdale</t>
-  </si>
-  <si>
-    <t>North Fremantle</t>
-  </si>
-  <si>
-    <t>Quinns Rocks</t>
-  </si>
-  <si>
-    <t>Spearwood</t>
-  </si>
-  <si>
-    <t>Parkwood</t>
-  </si>
-  <si>
-    <t>Tapping</t>
-  </si>
-  <si>
-    <t>Thornlie</t>
-  </si>
-  <si>
-    <t>Baldivis</t>
-  </si>
-  <si>
-    <t>Kensington</t>
-  </si>
-  <si>
-    <t>Kiara</t>
-  </si>
-  <si>
-    <t>Menora</t>
-  </si>
-  <si>
-    <t>Southern River</t>
-  </si>
-  <si>
-    <t>Bibra Lake</t>
-  </si>
-  <si>
-    <t>Swanbourne</t>
-  </si>
-  <si>
-    <t>The Vines</t>
-  </si>
-  <si>
-    <t>Stratton</t>
-  </si>
-  <si>
-    <t>North Beach</t>
-  </si>
-  <si>
-    <t>Haynes</t>
-  </si>
-  <si>
-    <t>Madeley</t>
-  </si>
-  <si>
-    <t>Wembley Downs</t>
-  </si>
-  <si>
-    <t>Bentley</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Kalamunda</t>
-  </si>
-  <si>
-    <t>Merriwa</t>
-  </si>
-  <si>
-    <t>Aubin Grove</t>
-  </si>
-  <si>
-    <t>Karrinyup</t>
-  </si>
-  <si>
-    <t>Gooseberry Hill</t>
-  </si>
-  <si>
-    <t>Darch</t>
-  </si>
-  <si>
-    <t>Hillarys</t>
-  </si>
-  <si>
-    <t>Alexander Heights</t>
-  </si>
-  <si>
-    <t>St James</t>
-  </si>
-  <si>
-    <t>Bassendean</t>
-  </si>
-  <si>
-    <t>Ardross</t>
-  </si>
-  <si>
-    <t>Bedfordale</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Ballajura</t>
-  </si>
-  <si>
-    <t>Leda</t>
-  </si>
-  <si>
-    <t>Bateman</t>
-  </si>
-  <si>
-    <t>Eglinton</t>
-  </si>
-  <si>
-    <t>Orelia</t>
-  </si>
-  <si>
-    <t>Beckenham</t>
-  </si>
-  <si>
-    <t>Edgewater</t>
-  </si>
-  <si>
-    <t>Helena Valley</t>
-  </si>
-  <si>
-    <t>East Cannington</t>
-  </si>
-  <si>
-    <t>Marmion</t>
-  </si>
-  <si>
-    <t>Maddington</t>
-  </si>
-  <si>
-    <t>Mount Claremont</t>
-  </si>
-  <si>
-    <t>Greenwood</t>
-  </si>
-  <si>
-    <t>Beechboro</t>
-  </si>
-  <si>
-    <t>Wembley</t>
-  </si>
-  <si>
-    <t>Iluka</t>
-  </si>
-  <si>
-    <t>Mundaring</t>
-  </si>
-  <si>
-    <t>Salter Point</t>
-  </si>
-  <si>
-    <t>Mount Pleasant</t>
-  </si>
-  <si>
-    <t>Warnbro</t>
-  </si>
-  <si>
-    <t>Byford</t>
-  </si>
-  <si>
-    <t>Willagee</t>
-  </si>
-  <si>
-    <t>Bertram</t>
-  </si>
-  <si>
-    <t>Mullaloo</t>
-  </si>
-  <si>
-    <t>Woodlands</t>
-  </si>
-  <si>
-    <t>Wellard</t>
-  </si>
-  <si>
-    <t>Rossmoyne</t>
-  </si>
-  <si>
-    <t>Beaconsfield</t>
-  </si>
-  <si>
-    <t>Brentwood</t>
-  </si>
-  <si>
-    <t>Carine</t>
-  </si>
-  <si>
-    <t>Beldon</t>
-  </si>
-  <si>
-    <t>Hillman</t>
-  </si>
-  <si>
-    <t>Swan View</t>
-  </si>
-  <si>
-    <t>Bennett Springs</t>
-  </si>
-  <si>
-    <t>Claremont</t>
-  </si>
-  <si>
-    <t>Mount Hawthorn</t>
-  </si>
-  <si>
-    <t>Ferndale</t>
-  </si>
-  <si>
-    <t>Boya</t>
-  </si>
-  <si>
-    <t>Aveley</t>
-  </si>
-  <si>
-    <t>Midland</t>
-  </si>
-  <si>
-    <t>High Wycombe</t>
-  </si>
-  <si>
-    <t>Kinross</t>
-  </si>
-  <si>
-    <t>Guildford</t>
-  </si>
-  <si>
-    <t>North Coogee</t>
-  </si>
-  <si>
-    <t>Gnangara</t>
-  </si>
-  <si>
-    <t>Ascot</t>
-  </si>
-  <si>
-    <t>Osborne Park</t>
-  </si>
-  <si>
-    <t>Karragullen</t>
-  </si>
-  <si>
-    <t>Sinagra</t>
-  </si>
-  <si>
-    <t>Darlington</t>
-  </si>
-  <si>
-    <t>Redcliffe</t>
-  </si>
-  <si>
-    <t>Pearsall</t>
-  </si>
-  <si>
-    <t>Huntingdale</t>
-  </si>
-  <si>
-    <t>Dayton</t>
-  </si>
-  <si>
-    <t>Morley</t>
-  </si>
-  <si>
-    <t>Balcatta</t>
-  </si>
-  <si>
-    <t>Kwinana Town Centre</t>
-  </si>
-  <si>
-    <t>City Beach</t>
-  </si>
-  <si>
-    <t>Two Rocks</t>
-  </si>
-  <si>
-    <t>Kallaroo</t>
-  </si>
-  <si>
-    <t>Banksia Grove</t>
-  </si>
-  <si>
-    <t>Noranda</t>
-  </si>
-  <si>
-    <t>Yangebup</t>
-  </si>
-  <si>
-    <t>Mindarie</t>
-  </si>
-  <si>
-    <t>Calista</t>
-  </si>
-  <si>
-    <t>Marangaroo</t>
-  </si>
-  <si>
-    <t>Mount Helena</t>
-  </si>
-  <si>
-    <t>Duncraig</t>
-  </si>
-  <si>
-    <t>Kewdale</t>
-  </si>
-  <si>
-    <t>Shoalwater</t>
-  </si>
-  <si>
-    <t>Melville</t>
-  </si>
-  <si>
-    <t>Leeming</t>
-  </si>
-  <si>
-    <t>Walliston</t>
-  </si>
-  <si>
-    <t>Kardinya</t>
-  </si>
-  <si>
-    <t>Landsdale</t>
-  </si>
-  <si>
-    <t>Serpentine</t>
-  </si>
-  <si>
-    <t>Brookdale</t>
-  </si>
-  <si>
-    <t>Coolbellup</t>
-  </si>
-  <si>
-    <t>Jandakot</t>
-  </si>
-  <si>
-    <t>Darling Downs</t>
-  </si>
-  <si>
-    <t>Hilton</t>
-  </si>
-  <si>
-    <t>Parkerville</t>
-  </si>
-  <si>
-    <t>Stoneville</t>
-  </si>
-  <si>
-    <t>Coogee</t>
-  </si>
-  <si>
-    <t>Mirrabooka</t>
-  </si>
-  <si>
-    <t>Subiaco</t>
-  </si>
-  <si>
-    <t>Lesmurdie</t>
-  </si>
-  <si>
-    <t>Jane Brook</t>
-  </si>
-  <si>
-    <t>Mahogany Creek</t>
-  </si>
-  <si>
-    <t>Middle Swan</t>
-  </si>
-  <si>
-    <t>Forrestfield</t>
-  </si>
-  <si>
-    <t>South Fremantle</t>
-  </si>
-  <si>
-    <t>Rockingham</t>
-  </si>
-  <si>
-    <t>Dalkeith</t>
-  </si>
-  <si>
-    <t>Cannington</t>
-  </si>
-  <si>
-    <t>Seville Grove</t>
-  </si>
-  <si>
-    <t>Safety Bay</t>
-  </si>
-  <si>
-    <t>Mosman Park</t>
-  </si>
-  <si>
-    <t>Ocean Reef</t>
-  </si>
-  <si>
-    <t>Jolimont</t>
-  </si>
-  <si>
-    <t>Carramar</t>
-  </si>
-  <si>
-    <t>Viveash</t>
-  </si>
-  <si>
-    <t>Sawyers Valley</t>
-  </si>
-  <si>
-    <t>Connolly</t>
-  </si>
-  <si>
-    <t>Joondalup</t>
-  </si>
-  <si>
-    <t>Nedlands</t>
-  </si>
-  <si>
-    <t>Ridgewood</t>
-  </si>
-  <si>
-    <t>Myaree</t>
-  </si>
-  <si>
-    <t>Applecross</t>
-  </si>
-  <si>
-    <t>Midvale</t>
-  </si>
-  <si>
-    <t>Ashfield</t>
-  </si>
-  <si>
-    <t>Clarkson</t>
-  </si>
-  <si>
-    <t>Mardella</t>
-  </si>
-  <si>
-    <t>Burns Beach</t>
-  </si>
-  <si>
-    <t>Rivervale</t>
-  </si>
-  <si>
-    <t>Craigie</t>
-  </si>
-  <si>
-    <t>Langford</t>
-  </si>
-  <si>
-    <t>Hocking</t>
-  </si>
-  <si>
-    <t>Parmelia</t>
-  </si>
-  <si>
-    <t>Piara Waters</t>
-  </si>
-  <si>
-    <t>Baskerville</t>
-  </si>
-  <si>
-    <t>Cooloongup</t>
-  </si>
-  <si>
-    <t>Nollamara</t>
-  </si>
-  <si>
-    <t>Palmyra</t>
-  </si>
-  <si>
-    <t>Waterford</t>
-  </si>
-  <si>
-    <t>Currambine</t>
-  </si>
-  <si>
-    <t>Beeliar</t>
-  </si>
-  <si>
-    <t>Sorrento</t>
-  </si>
-  <si>
-    <t>Churchlands</t>
-  </si>
-  <si>
-    <t>Woodvale</t>
-  </si>
-  <si>
-    <t>Trigg</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Alkimos</t>
-  </si>
-  <si>
-    <t>Dianella</t>
-  </si>
-  <si>
-    <t>Bickley</t>
-  </si>
-  <si>
-    <t>Heathridge</t>
-  </si>
-  <si>
-    <t>Cockburn Central</t>
-  </si>
-  <si>
-    <t>Mundijong</t>
-  </si>
-  <si>
-    <t>Willetton</t>
-  </si>
-  <si>
-    <t>Westminster</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Brabham</t>
-  </si>
-  <si>
-    <t>Booragoon</t>
-  </si>
-  <si>
-    <t>Caversham</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>Ellenbrook</t>
-  </si>
-  <si>
-    <t>Wanneroo</t>
-  </si>
-  <si>
-    <t>Orange Grove</t>
-  </si>
-  <si>
-    <t>Padbury</t>
-  </si>
-  <si>
-    <t>White Gum Valley</t>
-  </si>
-  <si>
-    <t>Yokine</t>
-  </si>
-  <si>
-    <t>Cloverdale</t>
-  </si>
-  <si>
-    <t>Floreat</t>
-  </si>
-  <si>
-    <t>Canning Vale</t>
-  </si>
-  <si>
-    <t>Burswood</t>
-  </si>
-  <si>
-    <t>North Lake</t>
-  </si>
-  <si>
-    <t>Koondoola</t>
-  </si>
-  <si>
-    <t>Kingsley</t>
-  </si>
-  <si>
-    <t>Karawara</t>
-  </si>
-  <si>
-    <t>West Perth</t>
-  </si>
-  <si>
-    <t>Attadale</t>
-  </si>
-  <si>
-    <t>Crawley</t>
-  </si>
-  <si>
-    <t>East Victoria Park</t>
-  </si>
-  <si>
-    <t>Joondanna</t>
-  </si>
-  <si>
-    <t>Lynwood</t>
-  </si>
-  <si>
-    <t>Tuart Hill</t>
-  </si>
-  <si>
-    <t>South Perth</t>
-  </si>
-  <si>
-    <t>Greenmount</t>
-  </si>
-  <si>
-    <t>Highgate</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Watermans Bay</t>
-  </si>
-  <si>
-    <t>Inglewood</t>
-  </si>
-  <si>
-    <t>Cottesloe</t>
-  </si>
-  <si>
-    <t>Maylands</t>
-  </si>
-  <si>
-    <t>East Fremantle</t>
-  </si>
-  <si>
-    <t>Leederville</t>
-  </si>
-  <si>
-    <t>Shelley</t>
-  </si>
-  <si>
-    <t>Daglish</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Mount Lawley</t>
-  </si>
-  <si>
-    <t>Glendalough</t>
-  </si>
-  <si>
-    <t>Riverton</t>
-  </si>
-  <si>
-    <t>Murdoch</t>
-  </si>
-  <si>
-    <t>Eden Hill</t>
-  </si>
-  <si>
-    <t>Girrawheen</t>
-  </si>
-  <si>
-    <t>Kelmscott</t>
-  </si>
-  <si>
-    <t>Doubleview</t>
-  </si>
-  <si>
-    <t>Champion Lakes</t>
-  </si>
-  <si>
-    <t>West Leederville</t>
-  </si>
-  <si>
-    <t>Coolbinia</t>
-  </si>
-  <si>
-    <t>Yanchep</t>
-  </si>
-  <si>
-    <t>Henley Brook</t>
-  </si>
-  <si>
-    <t>Peppermint Grove</t>
-  </si>
-  <si>
-    <t>Karnup</t>
-  </si>
-  <si>
-    <t>Hazelmere</t>
-  </si>
-  <si>
-    <t>Wooroloo</t>
-  </si>
-  <si>
-    <t>Alfred Cove</t>
-  </si>
-  <si>
-    <t>Bedford</t>
-  </si>
-  <si>
-    <t>Jarrahdale</t>
-  </si>
-  <si>
-    <t>Jindalee</t>
-  </si>
-  <si>
-    <t>Lathlain</t>
-  </si>
-  <si>
-    <t>Embleton</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Oakford</t>
-  </si>
-  <si>
-    <t>Brigadoon</t>
-  </si>
-  <si>
-    <t>Winthrop</t>
-  </si>
-  <si>
-    <t>Fremantle</t>
-  </si>
-  <si>
-    <t>North Perth</t>
-  </si>
-  <si>
-    <t>Cardup</t>
-  </si>
-  <si>
-    <t>Gosnells</t>
-  </si>
-  <si>
-    <t>Gidgegannup</t>
-  </si>
-  <si>
-    <t>Shenton Park</t>
-  </si>
-  <si>
-    <t>Innaloo</t>
-  </si>
-  <si>
-    <t>O'Connor</t>
-  </si>
-  <si>
-    <t>Pickering Brook</t>
-  </si>
-  <si>
-    <t>Whitby</t>
-  </si>
-  <si>
-    <t>Golden Bay</t>
-  </si>
-  <si>
-    <t>West Swan</t>
-  </si>
-  <si>
-    <t>Hovea</t>
-  </si>
-  <si>
-    <t>Northbridge</t>
-  </si>
-  <si>
-    <t>Millendon</t>
-  </si>
-  <si>
-    <t>Casuarina</t>
-  </si>
-  <si>
-    <t>Upper Swan</t>
-  </si>
-  <si>
-    <t>Mariginiup</t>
-  </si>
-  <si>
-    <t>Victoria Park</t>
-  </si>
-  <si>
-    <t>Oldbury</t>
-  </si>
-  <si>
-    <t>Chidlow</t>
-  </si>
-  <si>
-    <t>Carabooda</t>
-  </si>
-  <si>
-    <t>Belhus</t>
-  </si>
-  <si>
-    <t>Belmont</t>
-  </si>
-  <si>
-    <t>East Perth</t>
-  </si>
-  <si>
-    <t>Kwinana Beach</t>
-  </si>
-  <si>
-    <t>Keysbrook</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Anketell</t>
-  </si>
-  <si>
-    <t>Banjup</t>
-  </si>
-  <si>
-    <t>Jandabup</t>
-  </si>
-  <si>
-    <t>Wungong</t>
-  </si>
-  <si>
-    <t>Wattleup</t>
-  </si>
-  <si>
-    <t>Hopeland</t>
-  </si>
-  <si>
-    <t>Neerabup</t>
-  </si>
-  <si>
-    <t>Treeby</t>
-  </si>
-  <si>
-    <t>Munster</t>
-  </si>
-  <si>
-    <t>Hope Valley</t>
-  </si>
-  <si>
-    <t>Welshpool</t>
-  </si>
-  <si>
-    <t>Wangara</t>
-  </si>
-  <si>
-    <t>Naval Base</t>
+    <t>ALEXANDER HEIGHTS</t>
+  </si>
+  <si>
+    <t>ALFRED COVE</t>
+  </si>
+  <si>
+    <t>ALKIMOS</t>
+  </si>
+  <si>
+    <t>ANKETELL</t>
+  </si>
+  <si>
+    <t>APPLECROSS</t>
+  </si>
+  <si>
+    <t>ARDROSS</t>
+  </si>
+  <si>
+    <t>ARMADALE</t>
+  </si>
+  <si>
+    <t>ASCOT</t>
+  </si>
+  <si>
+    <t>ASHBY</t>
+  </si>
+  <si>
+    <t>ASHFIELD</t>
+  </si>
+  <si>
+    <t>ATTADALE</t>
+  </si>
+  <si>
+    <t>ATWELL</t>
+  </si>
+  <si>
+    <t>AUBIN GROVE</t>
+  </si>
+  <si>
+    <t>AVELEY</t>
+  </si>
+  <si>
+    <t>BALCATTA</t>
+  </si>
+  <si>
+    <t>BALDIVIS</t>
+  </si>
+  <si>
+    <t>BALGA</t>
+  </si>
+  <si>
+    <t>BALLAJURA</t>
+  </si>
+  <si>
+    <t>BANJUP</t>
+  </si>
+  <si>
+    <t>BANKSIA GROVE</t>
+  </si>
+  <si>
+    <t>BASKERVILLE</t>
+  </si>
+  <si>
+    <t>BASSENDEAN</t>
+  </si>
+  <si>
+    <t>BATEMAN</t>
+  </si>
+  <si>
+    <t>BAYSWATER</t>
+  </si>
+  <si>
+    <t>BEACONSFIELD</t>
+  </si>
+  <si>
+    <t>BECKENHAM</t>
+  </si>
+  <si>
+    <t>BEDFORD</t>
+  </si>
+  <si>
+    <t>BEDFORDALE</t>
+  </si>
+  <si>
+    <t>BEECHBORO</t>
+  </si>
+  <si>
+    <t>BEELIAR</t>
+  </si>
+  <si>
+    <t>BELDON</t>
+  </si>
+  <si>
+    <t>BELHUS</t>
+  </si>
+  <si>
+    <t>BELLEVUE</t>
+  </si>
+  <si>
+    <t>BELMONT</t>
+  </si>
+  <si>
+    <t>BENNETT SPRINGS</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>BERTRAM</t>
+  </si>
+  <si>
+    <t>BIBRA LAKE</t>
+  </si>
+  <si>
+    <t>BICKLEY</t>
+  </si>
+  <si>
+    <t>BICTON</t>
+  </si>
+  <si>
+    <t>BOORAGOON</t>
+  </si>
+  <si>
+    <t>BOYA</t>
+  </si>
+  <si>
+    <t>BRABHAM</t>
+  </si>
+  <si>
+    <t>BRENTWOOD</t>
+  </si>
+  <si>
+    <t>BRIGADOON</t>
+  </si>
+  <si>
+    <t>BROOKDALE</t>
+  </si>
+  <si>
+    <t>BULL CREEK</t>
+  </si>
+  <si>
+    <t>BULLSBROOK</t>
+  </si>
+  <si>
+    <t>BURNS BEACH</t>
+  </si>
+  <si>
+    <t>BURSWOOD</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>BYFORD</t>
+  </si>
+  <si>
+    <t>CALISTA</t>
+  </si>
+  <si>
+    <t>CAMILLO</t>
+  </si>
+  <si>
+    <t>CANNING VALE</t>
+  </si>
+  <si>
+    <t>CANNINGTON</t>
+  </si>
+  <si>
+    <t>CARABOODA</t>
+  </si>
+  <si>
+    <t>CARDUP</t>
+  </si>
+  <si>
+    <t>CARINE</t>
+  </si>
+  <si>
+    <t>CARLISLE</t>
+  </si>
+  <si>
+    <t>CARMEL</t>
+  </si>
+  <si>
+    <t>CARRAMAR</t>
+  </si>
+  <si>
+    <t>CASUARINA</t>
+  </si>
+  <si>
+    <t>CAVERSHAM</t>
+  </si>
+  <si>
+    <t>CHAMPION LAKES</t>
+  </si>
+  <si>
+    <t>CHIDLOW</t>
+  </si>
+  <si>
+    <t>CHURCHLANDS</t>
+  </si>
+  <si>
+    <t>CITY BEACH</t>
+  </si>
+  <si>
+    <t>CLAREMONT</t>
+  </si>
+  <si>
+    <t>CLARKSON</t>
+  </si>
+  <si>
+    <t>CLOVERDALE</t>
+  </si>
+  <si>
+    <t>COCKBURN CENTRAL</t>
+  </si>
+  <si>
+    <t>COMO</t>
+  </si>
+  <si>
+    <t>CONNOLLY</t>
+  </si>
+  <si>
+    <t>COOGEE</t>
+  </si>
+  <si>
+    <t>COOLBELLUP</t>
+  </si>
+  <si>
+    <t>COOLBINIA</t>
+  </si>
+  <si>
+    <t>COOLOONGUP</t>
+  </si>
+  <si>
+    <t>COTTESLOE</t>
+  </si>
+  <si>
+    <t>CRAIGIE</t>
+  </si>
+  <si>
+    <t>CRAWLEY</t>
+  </si>
+  <si>
+    <t>CURRAMBINE</t>
+  </si>
+  <si>
+    <t>DAGLISH</t>
+  </si>
+  <si>
+    <t>DALKEITH</t>
+  </si>
+  <si>
+    <t>DARCH</t>
+  </si>
+  <si>
+    <t>DARLING DOWNS</t>
+  </si>
+  <si>
+    <t>DARLINGTON</t>
+  </si>
+  <si>
+    <t>DAYTON</t>
+  </si>
+  <si>
+    <t>DIANELLA</t>
+  </si>
+  <si>
+    <t>DOUBLEVIEW</t>
+  </si>
+  <si>
+    <t>DUNCRAIG</t>
+  </si>
+  <si>
+    <t>EAST CANNINGTON</t>
+  </si>
+  <si>
+    <t>EAST FREMANTLE</t>
+  </si>
+  <si>
+    <t>EAST PERTH</t>
+  </si>
+  <si>
+    <t>EAST VICTORIA PARK</t>
+  </si>
+  <si>
+    <t>EDEN HILL</t>
+  </si>
+  <si>
+    <t>EDGEWATER</t>
+  </si>
+  <si>
+    <t>EGLINTON</t>
+  </si>
+  <si>
+    <t>ELLENBROOK</t>
+  </si>
+  <si>
+    <t>EMBLETON</t>
+  </si>
+  <si>
+    <t>FERNDALE</t>
+  </si>
+  <si>
+    <t>FLOREAT</t>
+  </si>
+  <si>
+    <t>FORRESTDALE</t>
+  </si>
+  <si>
+    <t>FORRESTFIELD</t>
+  </si>
+  <si>
+    <t>FREMANTLE</t>
+  </si>
+  <si>
+    <t>GIDGEGANNUP</t>
+  </si>
+  <si>
+    <t>GIRRAWHEEN</t>
+  </si>
+  <si>
+    <t>GLEN FORREST</t>
+  </si>
+  <si>
+    <t>GLENDALOUGH</t>
+  </si>
+  <si>
+    <t>GNANGARA</t>
+  </si>
+  <si>
+    <t>GOLDEN BAY</t>
+  </si>
+  <si>
+    <t>GOOSEBERRY HILL</t>
+  </si>
+  <si>
+    <t>GOSNELLS</t>
+  </si>
+  <si>
+    <t>GREENMOUNT</t>
+  </si>
+  <si>
+    <t>GREENWOOD</t>
+  </si>
+  <si>
+    <t>GUILDFORD</t>
+  </si>
+  <si>
+    <t>GWELUP</t>
+  </si>
+  <si>
+    <t>HAMERSLEY</t>
+  </si>
+  <si>
+    <t>HAMILTON HILL</t>
+  </si>
+  <si>
+    <t>HAMMOND PARK</t>
+  </si>
+  <si>
+    <t>HARRISDALE</t>
+  </si>
+  <si>
+    <t>HAYNES</t>
+  </si>
+  <si>
+    <t>HAZELMERE</t>
+  </si>
+  <si>
+    <t>HEATHRIDGE</t>
+  </si>
+  <si>
+    <t>HELENA VALLEY</t>
+  </si>
+  <si>
+    <t>HENLEY BROOK</t>
+  </si>
+  <si>
+    <t>HERNE HILL</t>
+  </si>
+  <si>
+    <t>HIGH WYCOMBE</t>
+  </si>
+  <si>
+    <t>HIGHGATE</t>
+  </si>
+  <si>
+    <t>HILBERT</t>
+  </si>
+  <si>
+    <t>HILLARYS</t>
+  </si>
+  <si>
+    <t>HILLMAN</t>
+  </si>
+  <si>
+    <t>HILTON</t>
+  </si>
+  <si>
+    <t>HOCKING</t>
+  </si>
+  <si>
+    <t>HOPE VALLEY</t>
+  </si>
+  <si>
+    <t>HOPELAND</t>
+  </si>
+  <si>
+    <t>HOVEA</t>
+  </si>
+  <si>
+    <t>HUNTINGDALE</t>
+  </si>
+  <si>
+    <t>ILUKA</t>
+  </si>
+  <si>
+    <t>INGLEWOOD</t>
+  </si>
+  <si>
+    <t>INNALOO</t>
+  </si>
+  <si>
+    <t>JANDABUP</t>
+  </si>
+  <si>
+    <t>JANDAKOT</t>
+  </si>
+  <si>
+    <t>JANE BROOK</t>
+  </si>
+  <si>
+    <t>JARRAHDALE</t>
+  </si>
+  <si>
+    <t>JINDALEE</t>
+  </si>
+  <si>
+    <t>JOLIMONT</t>
+  </si>
+  <si>
+    <t>JOONDALUP</t>
+  </si>
+  <si>
+    <t>JOONDANNA</t>
+  </si>
+  <si>
+    <t>KALAMUNDA</t>
+  </si>
+  <si>
+    <t>KALLAROO</t>
+  </si>
+  <si>
+    <t>KARAWARA</t>
+  </si>
+  <si>
+    <t>KARDINYA</t>
+  </si>
+  <si>
+    <t>KARNUP</t>
+  </si>
+  <si>
+    <t>KARRAGULLEN</t>
+  </si>
+  <si>
+    <t>KARRINYUP</t>
+  </si>
+  <si>
+    <t>KELMSCOTT</t>
+  </si>
+  <si>
+    <t>KENSINGTON</t>
+  </si>
+  <si>
+    <t>KENWICK</t>
+  </si>
+  <si>
+    <t>KEWDALE</t>
+  </si>
+  <si>
+    <t>KEYSBROOK</t>
+  </si>
+  <si>
+    <t>KIARA</t>
+  </si>
+  <si>
+    <t>KINGSLEY</t>
+  </si>
+  <si>
+    <t>KINROSS</t>
+  </si>
+  <si>
+    <t>KOONDOOLA</t>
+  </si>
+  <si>
+    <t>KOONGAMIA</t>
+  </si>
+  <si>
+    <t>KWINANA BEACH</t>
+  </si>
+  <si>
+    <t>KWINANA TOWN CENTRE</t>
+  </si>
+  <si>
+    <t>LANDSDALE</t>
+  </si>
+  <si>
+    <t>LANGFORD</t>
+  </si>
+  <si>
+    <t>LATHLAIN</t>
+  </si>
+  <si>
+    <t>LEDA</t>
+  </si>
+  <si>
+    <t>LEEDERVILLE</t>
+  </si>
+  <si>
+    <t>LEEMING</t>
+  </si>
+  <si>
+    <t>LESMURDIE</t>
+  </si>
+  <si>
+    <t>LOCKRIDGE</t>
+  </si>
+  <si>
+    <t>LYNWOOD</t>
+  </si>
+  <si>
+    <t>MADDINGTON</t>
+  </si>
+  <si>
+    <t>MADELEY</t>
+  </si>
+  <si>
+    <t>MAHOGANY CREEK</t>
+  </si>
+  <si>
+    <t>MAIDA VALE</t>
+  </si>
+  <si>
+    <t>MANNING</t>
+  </si>
+  <si>
+    <t>MARANGAROO</t>
+  </si>
+  <si>
+    <t>MARDELLA</t>
+  </si>
+  <si>
+    <t>MARIGINIUP</t>
+  </si>
+  <si>
+    <t>MARMION</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>MAYLANDS</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>MELVILLE</t>
+  </si>
+  <si>
+    <t>MENORA</t>
+  </si>
+  <si>
+    <t>MERRIWA</t>
+  </si>
+  <si>
+    <t>MIDDLE SWAN</t>
+  </si>
+  <si>
+    <t>MIDLAND</t>
+  </si>
+  <si>
+    <t>MIDVALE</t>
+  </si>
+  <si>
+    <t>MILLENDON</t>
+  </si>
+  <si>
+    <t>MINDARIE</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
+  </si>
+  <si>
+    <t>MORLEY</t>
+  </si>
+  <si>
+    <t>MOSMAN PARK</t>
+  </si>
+  <si>
+    <t>MOUNT CLAREMONT</t>
+  </si>
+  <si>
+    <t>MOUNT HAWTHORN</t>
+  </si>
+  <si>
+    <t>MOUNT HELENA</t>
+  </si>
+  <si>
+    <t>MOUNT LAWLEY</t>
+  </si>
+  <si>
+    <t>MOUNT NASURA</t>
+  </si>
+  <si>
+    <t>MOUNT PLEASANT</t>
+  </si>
+  <si>
+    <t>MOUNT RICHON</t>
+  </si>
+  <si>
+    <t>MULLALOO</t>
+  </si>
+  <si>
+    <t>MUNDARING</t>
+  </si>
+  <si>
+    <t>MUNDIJONG</t>
+  </si>
+  <si>
+    <t>MUNSTER</t>
+  </si>
+  <si>
+    <t>MURDOCH</t>
+  </si>
+  <si>
+    <t>MYAREE</t>
+  </si>
+  <si>
+    <t>NAVAL BASE</t>
+  </si>
+  <si>
+    <t>NEDLANDS</t>
+  </si>
+  <si>
+    <t>NEERABUP</t>
+  </si>
+  <si>
+    <t>NOLLAMARA</t>
+  </si>
+  <si>
+    <t>NORANDA</t>
+  </si>
+  <si>
+    <t>NORTH BEACH</t>
+  </si>
+  <si>
+    <t>NORTH COOGEE</t>
+  </si>
+  <si>
+    <t>NORTH FREMANTLE</t>
+  </si>
+  <si>
+    <t>NORTH LAKE</t>
+  </si>
+  <si>
+    <t>NORTH PERTH</t>
+  </si>
+  <si>
+    <t>NORTHBRIDGE</t>
+  </si>
+  <si>
+    <t>O'CONNOR</t>
+  </si>
+  <si>
+    <t>OAKFORD</t>
+  </si>
+  <si>
+    <t>OCEAN REEF</t>
+  </si>
+  <si>
+    <t>OLDBURY</t>
+  </si>
+  <si>
+    <t>ORANGE GROVE</t>
+  </si>
+  <si>
+    <t>ORELIA</t>
+  </si>
+  <si>
+    <t>OSBORNE PARK</t>
+  </si>
+  <si>
+    <t>PADBURY</t>
+  </si>
+  <si>
+    <t>PALMYRA</t>
+  </si>
+  <si>
+    <t>PARKERVILLE</t>
+  </si>
+  <si>
+    <t>PARKWOOD</t>
+  </si>
+  <si>
+    <t>PARMELIA</t>
+  </si>
+  <si>
+    <t>PEARSALL</t>
+  </si>
+  <si>
+    <t>PEPPERMINT GROVE</t>
+  </si>
+  <si>
+    <t>PIARA WATERS</t>
+  </si>
+  <si>
+    <t>PICKERING BROOK</t>
+  </si>
+  <si>
+    <t>PORT KENNEDY</t>
+  </si>
+  <si>
+    <t>QUEENS PARK</t>
+  </si>
+  <si>
+    <t>QUINNS ROCKS</t>
+  </si>
+  <si>
+    <t>REDCLIFFE</t>
+  </si>
+  <si>
+    <t>RIDGEWOOD</t>
+  </si>
+  <si>
+    <t>RIVERTON</t>
+  </si>
+  <si>
+    <t>RIVERVALE</t>
+  </si>
+  <si>
+    <t>ROCKINGHAM</t>
+  </si>
+  <si>
+    <t>ROLEYSTONE</t>
+  </si>
+  <si>
+    <t>ROSSMOYNE</t>
+  </si>
+  <si>
+    <t>SAFETY BAY</t>
+  </si>
+  <si>
+    <t>SALTER POINT</t>
+  </si>
+  <si>
+    <t>SAMSON</t>
+  </si>
+  <si>
+    <t>SAWYERS VALLEY</t>
+  </si>
+  <si>
+    <t>SCARBOROUGH</t>
+  </si>
+  <si>
+    <t>SECRET HARBOUR</t>
+  </si>
+  <si>
+    <t>SERPENTINE</t>
+  </si>
+  <si>
+    <t>SEVILLE GROVE</t>
+  </si>
+  <si>
+    <t>SHELLEY</t>
+  </si>
+  <si>
+    <t>SHENTON PARK</t>
+  </si>
+  <si>
+    <t>SHOALWATER</t>
+  </si>
+  <si>
+    <t>SINAGRA</t>
+  </si>
+  <si>
+    <t>SINGLETON</t>
+  </si>
+  <si>
+    <t>SORRENTO</t>
+  </si>
+  <si>
+    <t>SOUTH FREMANTLE</t>
+  </si>
+  <si>
+    <t>SOUTH GUILDFORD</t>
+  </si>
+  <si>
+    <t>SOUTH LAKE</t>
+  </si>
+  <si>
+    <t>SOUTH PERTH</t>
+  </si>
+  <si>
+    <t>SOUTHERN RIVER</t>
+  </si>
+  <si>
+    <t>SPEARWOOD</t>
+  </si>
+  <si>
+    <t>ST JAMES</t>
+  </si>
+  <si>
+    <t>STIRLING</t>
+  </si>
+  <si>
+    <t>STONEVILLE</t>
+  </si>
+  <si>
+    <t>STRATTON</t>
+  </si>
+  <si>
+    <t>SUBIACO</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>SWAN VIEW</t>
+  </si>
+  <si>
+    <t>SWANBOURNE</t>
+  </si>
+  <si>
+    <t>TAPPING</t>
+  </si>
+  <si>
+    <t>THE VINES</t>
+  </si>
+  <si>
+    <t>THORNLIE</t>
+  </si>
+  <si>
+    <t>TREEBY</t>
+  </si>
+  <si>
+    <t>TRIGG</t>
+  </si>
+  <si>
+    <t>TUART HILL</t>
+  </si>
+  <si>
+    <t>TWO ROCKS</t>
+  </si>
+  <si>
+    <t>UPPER SWAN</t>
+  </si>
+  <si>
+    <t>VICTORIA PARK</t>
+  </si>
+  <si>
+    <t>VIVEASH</t>
+  </si>
+  <si>
+    <t>WAIKIKI</t>
+  </si>
+  <si>
+    <t>WALLISTON</t>
+  </si>
+  <si>
+    <t>WANDI</t>
+  </si>
+  <si>
+    <t>WANGARA</t>
+  </si>
+  <si>
+    <t>WANNEROO</t>
+  </si>
+  <si>
+    <t>WARNBRO</t>
+  </si>
+  <si>
+    <t>WARWICK</t>
+  </si>
+  <si>
+    <t>WATERFORD</t>
+  </si>
+  <si>
+    <t>WATERMANS BAY</t>
+  </si>
+  <si>
+    <t>WATTLE GROVE</t>
+  </si>
+  <si>
+    <t>WATTLEUP</t>
+  </si>
+  <si>
+    <t>WELLARD</t>
+  </si>
+  <si>
+    <t>WELSHPOOL</t>
+  </si>
+  <si>
+    <t>WEMBLEY</t>
+  </si>
+  <si>
+    <t>WEMBLEY DOWNS</t>
+  </si>
+  <si>
+    <t>WEST LEEDERVILLE</t>
+  </si>
+  <si>
+    <t>WEST PERTH</t>
+  </si>
+  <si>
+    <t>WEST SWAN</t>
+  </si>
+  <si>
+    <t>WESTMINSTER</t>
+  </si>
+  <si>
+    <t>WHITBY</t>
+  </si>
+  <si>
+    <t>WHITE GUM VALLEY</t>
+  </si>
+  <si>
+    <t>WILLAGEE</t>
+  </si>
+  <si>
+    <t>WILLETTON</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>WINTHROP</t>
+  </si>
+  <si>
+    <t>WOODBRIDGE</t>
+  </si>
+  <si>
+    <t>WOODLANDS</t>
+  </si>
+  <si>
+    <t>WOODVALE</t>
+  </si>
+  <si>
+    <t>WOOROLOO</t>
+  </si>
+  <si>
+    <t>WUNGONG</t>
+  </si>
+  <si>
+    <t>YANCHEP</t>
+  </si>
+  <si>
+    <t>YANGEBUP</t>
+  </si>
+  <si>
+    <t>YOKINE</t>
   </si>
 </sst>
 </file>
@@ -1375,14 +1375,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A54260C-E25F-B34C-BB7E-988AFE33BF92}">
   <dimension ref="A1:A322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1391,1607 +1388,1607 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>307</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>137</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
